--- a/biology/Botanique/Acis_longifolia/Acis_longifolia.xlsx
+++ b/biology/Botanique/Acis_longifolia/Acis_longifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">nivéole à feuilles longues
 Acis longifolia, ou Nivéole à feuilles longues, est une espèce de plante herbacée qui appartient à la famille des Liliaceaeselon la classification classique. La classification phylogénétique les place dans la famille des Amaryllidaceae . Cette Acis fleurit au printemps.
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nivéole à longues feuilles, Acis longifolia J.Gay ex M.Roemer, est une endémique rare du Nord de la Corse, dans la presqu’île de Scandola, qui ressemble à la nivéole à feuilles capillaires. Cette espèce printanière a des feuilles filiformes et des fleurs blanches.
 </t>
@@ -543,7 +557,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Menacée 
 </t>
@@ -574,7 +590,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acis longifolia, peu rustiques, peut, sauf dans des régions au climat doux comme le sud de l’Angleterre ou l'ouest de la France, être cultivée en serre froide.</t>
         </is>
